--- a/public/excel/Sektor 1.xlsx
+++ b/public/excel/Sektor 1.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROGRAMMER\LARAVEL\gkps-sidorame\public\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A981B475-A8D2-4BE7-B15D-DCC27285211D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="219">
   <si>
     <t>KODE KELUARGA</t>
   </si>
@@ -64,12 +70,624 @@
   </si>
   <si>
     <t>002_1</t>
+  </si>
+  <si>
+    <t>003_1</t>
+  </si>
+  <si>
+    <t>Jemmy Reson Turnip</t>
+  </si>
+  <si>
+    <t>004_1</t>
+  </si>
+  <si>
+    <t>Pdt. Riando Tondang</t>
+  </si>
+  <si>
+    <t>PW. Denni R Damanik</t>
+  </si>
+  <si>
+    <t>Timoti D S Tondang</t>
+  </si>
+  <si>
+    <t>Publius Ivando Tondang</t>
+  </si>
+  <si>
+    <t>St. Janpasen Saragih</t>
+  </si>
+  <si>
+    <t>Sihol Saragih</t>
+  </si>
+  <si>
+    <t>006_1</t>
+  </si>
+  <si>
+    <t>St. Ir Tjukup Barus</t>
+  </si>
+  <si>
+    <t>Sontiamin br Sipayung</t>
+  </si>
+  <si>
+    <t>Gusti Stevani br Sitompul</t>
+  </si>
+  <si>
+    <t>Dinaria br Girsang</t>
+  </si>
+  <si>
+    <t>Novianti br Girsang</t>
+  </si>
+  <si>
+    <t>Ernita Rosmita br Damanik</t>
+  </si>
+  <si>
+    <t>Nuradi Silalahi</t>
+  </si>
+  <si>
+    <t>Sari Mulia Silalahi</t>
+  </si>
+  <si>
+    <t>005_0</t>
+  </si>
+  <si>
+    <t>007_0</t>
+  </si>
+  <si>
+    <t>008_0</t>
+  </si>
+  <si>
+    <t>009_0</t>
+  </si>
+  <si>
+    <t>St. Rosita br Sinaga</t>
+  </si>
+  <si>
+    <t>010_0</t>
+  </si>
+  <si>
+    <t>Danielson Munthe</t>
+  </si>
+  <si>
+    <t>Dandi Anderson Munthe</t>
+  </si>
+  <si>
+    <t>Aldi Marcelino Munthe</t>
+  </si>
+  <si>
+    <t>011_0</t>
+  </si>
+  <si>
+    <t>Rostina br Saragih</t>
+  </si>
+  <si>
+    <t>Gilbert Purba</t>
+  </si>
+  <si>
+    <t>Boyke Andrean Purba</t>
+  </si>
+  <si>
+    <t>012_0</t>
+  </si>
+  <si>
+    <t>A br Manullang</t>
+  </si>
+  <si>
+    <t>Winardi Baridwan Purba</t>
+  </si>
+  <si>
+    <t>Olga Anggraini br Purba</t>
+  </si>
+  <si>
+    <t>Michael Jordan Purba</t>
+  </si>
+  <si>
+    <t>Jhon Hompton Purba</t>
+  </si>
+  <si>
+    <t>013_1</t>
+  </si>
+  <si>
+    <t>St. Bonifancius Malau</t>
+  </si>
+  <si>
+    <t>Osbina br Saragih</t>
+  </si>
+  <si>
+    <t>014_0</t>
+  </si>
+  <si>
+    <t>St. Poltak Gultom</t>
+  </si>
+  <si>
+    <t>Septian Yediza Gultom</t>
+  </si>
+  <si>
+    <t>015_0</t>
+  </si>
+  <si>
+    <t>Mannauli br Manihuruk</t>
+  </si>
+  <si>
+    <t>016_0</t>
+  </si>
+  <si>
+    <t>Eslina br Purba</t>
+  </si>
+  <si>
+    <t>Kristina br Saragih</t>
+  </si>
+  <si>
+    <t>Desy Yustiara br Saragih</t>
+  </si>
+  <si>
+    <t>017_0</t>
+  </si>
+  <si>
+    <t>St. Rasliana br Purba</t>
+  </si>
+  <si>
+    <t>Roby Krisdinata Saragih</t>
+  </si>
+  <si>
+    <t>Shella Melati br Saragih</t>
+  </si>
+  <si>
+    <t>018_1</t>
+  </si>
+  <si>
+    <t>Sarman Sinaga</t>
+  </si>
+  <si>
+    <t>Mery br Situngkir</t>
+  </si>
+  <si>
+    <t>Ekayanti M br Sinaga</t>
+  </si>
+  <si>
+    <t>Aprianto Sinaga</t>
+  </si>
+  <si>
+    <t>019_1</t>
+  </si>
+  <si>
+    <t>St. Royan P Sinaga</t>
+  </si>
+  <si>
+    <t>St. Marliana Sari br Saragih</t>
+  </si>
+  <si>
+    <t>Petty Lola br Sinaga</t>
+  </si>
+  <si>
+    <t>Franco Poltak Sinaga</t>
+  </si>
+  <si>
+    <t>Fenny br Sinaga</t>
+  </si>
+  <si>
+    <t>020_0</t>
+  </si>
+  <si>
+    <t>Haposan Saragih</t>
+  </si>
+  <si>
+    <t>021_0</t>
+  </si>
+  <si>
+    <t>Paulina br Purba</t>
+  </si>
+  <si>
+    <t>022_1</t>
+  </si>
+  <si>
+    <t>Tumpal Saragih</t>
+  </si>
+  <si>
+    <t>Elizabeth br Panggabean</t>
+  </si>
+  <si>
+    <t>Ester Saragih</t>
+  </si>
+  <si>
+    <t>Jesaya Saragih</t>
+  </si>
+  <si>
+    <t>Pedro Medano Saragih</t>
+  </si>
+  <si>
+    <t>Pablo Medano Saragih</t>
+  </si>
+  <si>
+    <t>023_0</t>
+  </si>
+  <si>
+    <t>Alponius Girsang</t>
+  </si>
+  <si>
+    <t>024_0</t>
+  </si>
+  <si>
+    <t>St. Firman Girsang</t>
+  </si>
+  <si>
+    <t>025_1</t>
+  </si>
+  <si>
+    <t>Armencius Saragih</t>
+  </si>
+  <si>
+    <t>Hotmeria br Girsang</t>
+  </si>
+  <si>
+    <t>Maranatha Saragih</t>
+  </si>
+  <si>
+    <t>Mellyta Saragih</t>
+  </si>
+  <si>
+    <t>Anithia Theresia Saragih</t>
+  </si>
+  <si>
+    <t>Hotman Dinata Saragih</t>
+  </si>
+  <si>
+    <t>Johanes Ebinata Saragih</t>
+  </si>
+  <si>
+    <t>026_0</t>
+  </si>
+  <si>
+    <t>St. Andy P Saragih</t>
+  </si>
+  <si>
+    <t>Chris Febiola br Saragih</t>
+  </si>
+  <si>
+    <t>027_0</t>
+  </si>
+  <si>
+    <t>Lamsinah br Sinaga</t>
+  </si>
+  <si>
+    <t>028_1</t>
+  </si>
+  <si>
+    <t>Jamson Turnip</t>
+  </si>
+  <si>
+    <t>St. Rosdeliana br Girsang</t>
+  </si>
+  <si>
+    <t>Ryvana Novelyn Turnip</t>
+  </si>
+  <si>
+    <t>Verananda Turnip</t>
+  </si>
+  <si>
+    <t>029_0</t>
+  </si>
+  <si>
+    <t>St. Rismasari br Sumbayak</t>
+  </si>
+  <si>
+    <t>Celine Devinia Pasaribu</t>
+  </si>
+  <si>
+    <t>030_1</t>
+  </si>
+  <si>
+    <t>St. Hendry D Saragih</t>
+  </si>
+  <si>
+    <t>St. Tora A Simamora</t>
+  </si>
+  <si>
+    <t>Hennock Gitasari Saragih</t>
+  </si>
+  <si>
+    <t>Gabriel Saragih</t>
+  </si>
+  <si>
+    <t>031_1</t>
+  </si>
+  <si>
+    <t>St. Ir Semli Sipayung</t>
+  </si>
+  <si>
+    <t>St. Endang K. br Purba</t>
+  </si>
+  <si>
+    <t>Catherine Ananta br Sipayung</t>
+  </si>
+  <si>
+    <t>Simson Toga Sipayung</t>
+  </si>
+  <si>
+    <t>Angela Inma Sipayung</t>
+  </si>
+  <si>
+    <t>032_1</t>
+  </si>
+  <si>
+    <t>Rudi Eriksman Purba</t>
+  </si>
+  <si>
+    <t>Wira Hastuty Sihotang</t>
+  </si>
+  <si>
+    <t>Sarah Devina Purba</t>
+  </si>
+  <si>
+    <t>Natalia Purba</t>
+  </si>
+  <si>
+    <t>033_1</t>
+  </si>
+  <si>
+    <t>Krisman S Gultom</t>
+  </si>
+  <si>
+    <t>Marlina br Butar-butar</t>
+  </si>
+  <si>
+    <t>Duan Haetman Gultom</t>
+  </si>
+  <si>
+    <t>Daniel Obama Gultom</t>
+  </si>
+  <si>
+    <t>Lulu Nadeba Simbolon</t>
+  </si>
+  <si>
+    <t>034_1</t>
+  </si>
+  <si>
+    <t>Ediahman Sijabat</t>
+  </si>
+  <si>
+    <t>Pasuria br Silaen</t>
+  </si>
+  <si>
+    <t>035_1</t>
+  </si>
+  <si>
+    <t>St. Lortianna br Malau</t>
+  </si>
+  <si>
+    <t>036_1</t>
+  </si>
+  <si>
+    <t>Luther Girsang</t>
+  </si>
+  <si>
+    <t>Berliana br Siregar</t>
+  </si>
+  <si>
+    <t>Grace J. Girsang</t>
+  </si>
+  <si>
+    <t>Noveline I Girsang</t>
+  </si>
+  <si>
+    <t>037_1</t>
+  </si>
+  <si>
+    <t>St. Drs. Karnomen Purba</t>
+  </si>
+  <si>
+    <t>Pdt. Rusmala Dewi Munthe</t>
+  </si>
+  <si>
+    <t>Jhessica Citra br Purba</t>
+  </si>
+  <si>
+    <t>038_1</t>
+  </si>
+  <si>
+    <t>Musa Pratama Siregar</t>
+  </si>
+  <si>
+    <t>Tiarmin br Saragih</t>
+  </si>
+  <si>
+    <t>Krispansa G Siregar</t>
+  </si>
+  <si>
+    <t>Januar Giraldi Siregar</t>
+  </si>
+  <si>
+    <t>Calvin OJ Siregar</t>
+  </si>
+  <si>
+    <t>039_1</t>
+  </si>
+  <si>
+    <t>St. Johannes R. K. Purba</t>
+  </si>
+  <si>
+    <t>Effiana br Damanik</t>
+  </si>
+  <si>
+    <t>Joana Maylita Purba</t>
+  </si>
+  <si>
+    <t>Alysia Dwi Putri K. Purba</t>
+  </si>
+  <si>
+    <t>Deandra Raenelle Purba</t>
+  </si>
+  <si>
+    <t>040_1</t>
+  </si>
+  <si>
+    <t>Nanda Irvandi Malau</t>
+  </si>
+  <si>
+    <t>Fenny M br Nababan</t>
+  </si>
+  <si>
+    <t>Reynard BPJ Malau</t>
+  </si>
+  <si>
+    <t>Braven PI Malau</t>
+  </si>
+  <si>
+    <t>041_1</t>
+  </si>
+  <si>
+    <t>Benni Athur Simatupang</t>
+  </si>
+  <si>
+    <t>Arenta br Sembiring</t>
+  </si>
+  <si>
+    <t>Puji Kara Simatupang</t>
+  </si>
+  <si>
+    <t>Arkananta Simatupang</t>
+  </si>
+  <si>
+    <t>Lin br Simatupang</t>
+  </si>
+  <si>
+    <t>042_1</t>
+  </si>
+  <si>
+    <t>Francie Purba</t>
+  </si>
+  <si>
+    <t>Ria br Nababan</t>
+  </si>
+  <si>
+    <t>Christian A Purba</t>
+  </si>
+  <si>
+    <t>043_1</t>
+  </si>
+  <si>
+    <t>Jasardes Damanik</t>
+  </si>
+  <si>
+    <t>M br Tambunan</t>
+  </si>
+  <si>
+    <t>Boy Doya Damanik</t>
+  </si>
+  <si>
+    <t>044_1</t>
+  </si>
+  <si>
+    <t>Erick cristover Barus</t>
+  </si>
+  <si>
+    <t>Maria Magdalena L. Tobing</t>
+  </si>
+  <si>
+    <t>Ucok</t>
+  </si>
+  <si>
+    <t>12-18-1982</t>
+  </si>
+  <si>
+    <t>045_1</t>
+  </si>
+  <si>
+    <t>St. Sumardo Munthe</t>
+  </si>
+  <si>
+    <t>Ina br Sianturi</t>
+  </si>
+  <si>
+    <t>046_0</t>
+  </si>
+  <si>
+    <t>Tiomas Damanik</t>
+  </si>
+  <si>
+    <t>Hendrik Saragih</t>
+  </si>
+  <si>
+    <t>047_1</t>
+  </si>
+  <si>
+    <t>Hotmedin Saragih</t>
+  </si>
+  <si>
+    <t>St. Hennywati br Purba</t>
+  </si>
+  <si>
+    <t>048_0</t>
+  </si>
+  <si>
+    <t>Tarmuliani br Sinaga</t>
+  </si>
+  <si>
+    <t>Kiki Saragih</t>
+  </si>
+  <si>
+    <t>049_1</t>
+  </si>
+  <si>
+    <t>Rio Arthur H. Simatupang</t>
+  </si>
+  <si>
+    <t>Lia Nathalia br Saragi</t>
+  </si>
+  <si>
+    <t>Gaddiel B Simatupang</t>
+  </si>
+  <si>
+    <t>050_1</t>
+  </si>
+  <si>
+    <t>Indra P Malau</t>
+  </si>
+  <si>
+    <t>Meylida br Girsang</t>
+  </si>
+  <si>
+    <t>051_1</t>
+  </si>
+  <si>
+    <t>Taton Henrikus Pasaribu</t>
+  </si>
+  <si>
+    <t>Krisna Rohani br Siahaan</t>
+  </si>
+  <si>
+    <t>Remilia S. Surbakti</t>
+  </si>
+  <si>
+    <t>052_0</t>
+  </si>
+  <si>
+    <t>Andrew Emmanuel Haloho</t>
+  </si>
+  <si>
+    <t>Elena Madeleine Haloho</t>
+  </si>
+  <si>
+    <t>053_1</t>
+  </si>
+  <si>
+    <t>Maju Purba</t>
+  </si>
+  <si>
+    <t>Roma Goknim Sauhur Saragih</t>
+  </si>
+  <si>
+    <t>Merry Vierce Purba</t>
+  </si>
+  <si>
+    <t>Marya Maretha Purba</t>
+  </si>
+  <si>
+    <t>Mark Mikhael Purba</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -171,7 +789,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -223,7 +841,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -417,18 +1035,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E161"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
+      <selection activeCell="A162" sqref="A162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -592,6 +1210,2506 @@
         <v>4</v>
       </c>
     </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
+        <v>25285</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
+        <v>25463</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>38181</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2">
+        <v>40072</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2">
+        <v>16412</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2">
+        <v>27924</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2">
+        <v>15059</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2">
+        <v>18830</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20" s="2">
+        <v>17977</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2">
+        <v>31430</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2">
+        <v>20422</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2">
+        <v>28728</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2">
+        <v>30148</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25" s="2">
+        <v>14245</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2">
+        <v>26248</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2">
+        <v>36966</v>
+      </c>
+      <c r="E27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" s="2">
+        <v>37442</v>
+      </c>
+      <c r="E28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29" s="2">
+        <v>23865</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" s="2">
+        <v>34993</v>
+      </c>
+      <c r="E30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" s="2">
+        <v>37843</v>
+      </c>
+      <c r="E31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32" s="2">
+        <v>26248</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33" s="2">
+        <v>30769</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34" s="2">
+        <v>35241</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35" s="2">
+        <v>36007</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36" s="2">
+        <v>33947</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37" s="2">
+        <v>19940</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38" s="2">
+        <v>20421</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39" s="2">
+        <v>23005</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40" s="2">
+        <v>38234</v>
+      </c>
+      <c r="E40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41" t="s">
+        <v>59</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41" s="2">
+        <v>24034</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" t="s">
+        <v>62</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43" s="2">
+        <v>27022</v>
+      </c>
+      <c r="E43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44" t="s">
+        <v>63</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44" s="2">
+        <v>28462</v>
+      </c>
+      <c r="E44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>64</v>
+      </c>
+      <c r="B45" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45" s="2">
+        <v>26352</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>64</v>
+      </c>
+      <c r="B46" t="s">
+        <v>66</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46" s="2">
+        <v>35711</v>
+      </c>
+      <c r="E46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>64</v>
+      </c>
+      <c r="B47" t="s">
+        <v>67</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47" s="2">
+        <v>36782</v>
+      </c>
+      <c r="E47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>68</v>
+      </c>
+      <c r="B48" t="s">
+        <v>69</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48" s="2">
+        <v>23294</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>68</v>
+      </c>
+      <c r="B49" t="s">
+        <v>70</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49" s="2">
+        <v>21896</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>68</v>
+      </c>
+      <c r="B50" t="s">
+        <v>71</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50" s="2">
+        <v>32935</v>
+      </c>
+      <c r="E50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>68</v>
+      </c>
+      <c r="B51" t="s">
+        <v>72</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51" s="2">
+        <v>34083</v>
+      </c>
+      <c r="E51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>73</v>
+      </c>
+      <c r="B52" t="s">
+        <v>74</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52" s="2">
+        <v>25810</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>73</v>
+      </c>
+      <c r="B53" t="s">
+        <v>75</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53" s="2">
+        <v>24069</v>
+      </c>
+      <c r="E53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>73</v>
+      </c>
+      <c r="B54" t="s">
+        <v>76</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54" s="2">
+        <v>36704</v>
+      </c>
+      <c r="E54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>73</v>
+      </c>
+      <c r="B55" t="s">
+        <v>77</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55" s="2">
+        <v>37778</v>
+      </c>
+      <c r="E55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>73</v>
+      </c>
+      <c r="B56" t="s">
+        <v>78</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56" s="2">
+        <v>38465</v>
+      </c>
+      <c r="E56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>79</v>
+      </c>
+      <c r="B57" t="s">
+        <v>80</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57" s="2">
+        <v>24581</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>81</v>
+      </c>
+      <c r="B58" t="s">
+        <v>82</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58" s="2">
+        <v>24846</v>
+      </c>
+      <c r="E58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>83</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59" s="2">
+        <v>24140</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>83</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60" s="2">
+        <v>25047</v>
+      </c>
+      <c r="E60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>83</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61" s="2">
+        <v>34244</v>
+      </c>
+      <c r="E61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>83</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62" s="2">
+        <v>35023</v>
+      </c>
+      <c r="E62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>83</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63" s="2">
+        <v>37314</v>
+      </c>
+      <c r="E63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>83</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64" s="2">
+        <v>37314</v>
+      </c>
+      <c r="E64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>90</v>
+      </c>
+      <c r="B65" t="s">
+        <v>91</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>92</v>
+      </c>
+      <c r="B66" t="s">
+        <v>93</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66" s="2">
+        <v>13880</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>94</v>
+      </c>
+      <c r="B67" t="s">
+        <v>95</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67" s="2">
+        <v>18191</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>94</v>
+      </c>
+      <c r="B68" t="s">
+        <v>96</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68" s="2">
+        <v>26103</v>
+      </c>
+      <c r="E68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>94</v>
+      </c>
+      <c r="B69" t="s">
+        <v>97</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69" s="2">
+        <v>33264</v>
+      </c>
+      <c r="E69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>94</v>
+      </c>
+      <c r="B70" t="s">
+        <v>98</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70" s="2">
+        <v>34459</v>
+      </c>
+      <c r="E70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>94</v>
+      </c>
+      <c r="B71" t="s">
+        <v>99</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71" s="2">
+        <v>34710</v>
+      </c>
+      <c r="E71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>94</v>
+      </c>
+      <c r="B72" t="s">
+        <v>100</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72" s="2">
+        <v>36815</v>
+      </c>
+      <c r="E72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>94</v>
+      </c>
+      <c r="B73" t="s">
+        <v>101</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73" s="2">
+        <v>38034</v>
+      </c>
+      <c r="E73">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>102</v>
+      </c>
+      <c r="B74" t="s">
+        <v>103</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74" s="2">
+        <v>23781</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>102</v>
+      </c>
+      <c r="B75" t="s">
+        <v>104</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75" s="2">
+        <v>35770</v>
+      </c>
+      <c r="E75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>105</v>
+      </c>
+      <c r="B76" t="s">
+        <v>106</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76" s="2">
+        <v>17448</v>
+      </c>
+      <c r="E76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>107</v>
+      </c>
+      <c r="B77" t="s">
+        <v>108</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77" s="2">
+        <v>22314</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>107</v>
+      </c>
+      <c r="B78" t="s">
+        <v>109</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78" s="2">
+        <v>23156</v>
+      </c>
+      <c r="E78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>107</v>
+      </c>
+      <c r="B79" t="s">
+        <v>110</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79" s="2">
+        <v>33545</v>
+      </c>
+      <c r="E79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>107</v>
+      </c>
+      <c r="B80" t="s">
+        <v>111</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80" s="2">
+        <v>34122</v>
+      </c>
+      <c r="E80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>112</v>
+      </c>
+      <c r="B81" t="s">
+        <v>113</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81" s="2">
+        <v>22279</v>
+      </c>
+      <c r="E81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>112</v>
+      </c>
+      <c r="B82" t="s">
+        <v>114</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82" s="2">
+        <v>35772</v>
+      </c>
+      <c r="E82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>115</v>
+      </c>
+      <c r="B83" t="s">
+        <v>116</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83" s="2">
+        <v>26845</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>115</v>
+      </c>
+      <c r="B84" t="s">
+        <v>117</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84" s="2">
+        <v>28114</v>
+      </c>
+      <c r="E84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>115</v>
+      </c>
+      <c r="B85" t="s">
+        <v>118</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85" s="2">
+        <v>37964</v>
+      </c>
+      <c r="E85">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>115</v>
+      </c>
+      <c r="B86" t="s">
+        <v>119</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86" s="2">
+        <v>38472</v>
+      </c>
+      <c r="E86">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>120</v>
+      </c>
+      <c r="B87" t="s">
+        <v>121</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87" s="2">
+        <v>26500</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>120</v>
+      </c>
+      <c r="B88" t="s">
+        <v>122</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88" s="2">
+        <v>26154</v>
+      </c>
+      <c r="E88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>120</v>
+      </c>
+      <c r="B89" t="s">
+        <v>123</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89" s="2">
+        <v>36557</v>
+      </c>
+      <c r="E89">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>120</v>
+      </c>
+      <c r="B90" t="s">
+        <v>124</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90" s="2">
+        <v>37104</v>
+      </c>
+      <c r="E90">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>120</v>
+      </c>
+      <c r="B91" t="s">
+        <v>125</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91" s="2">
+        <v>38765</v>
+      </c>
+      <c r="E91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>126</v>
+      </c>
+      <c r="B92" t="s">
+        <v>127</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92" s="2">
+        <v>29640</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>126</v>
+      </c>
+      <c r="B93" t="s">
+        <v>128</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93" s="2">
+        <v>31290</v>
+      </c>
+      <c r="E93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>126</v>
+      </c>
+      <c r="B94" t="s">
+        <v>129</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94" s="2">
+        <v>38374</v>
+      </c>
+      <c r="E94">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>126</v>
+      </c>
+      <c r="B95" t="s">
+        <v>130</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95" s="2">
+        <v>41624</v>
+      </c>
+      <c r="E95">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>131</v>
+      </c>
+      <c r="B96" t="s">
+        <v>132</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96" s="2">
+        <v>24189</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>131</v>
+      </c>
+      <c r="B97" t="s">
+        <v>133</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97" s="2">
+        <v>27519</v>
+      </c>
+      <c r="E97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>131</v>
+      </c>
+      <c r="B98" t="s">
+        <v>134</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98" s="2">
+        <v>39202</v>
+      </c>
+      <c r="E98">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>131</v>
+      </c>
+      <c r="B99" t="s">
+        <v>135</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99" s="2">
+        <v>39780</v>
+      </c>
+      <c r="E99">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>131</v>
+      </c>
+      <c r="B100" t="s">
+        <v>136</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100" s="2">
+        <v>34232</v>
+      </c>
+      <c r="E100">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>137</v>
+      </c>
+      <c r="B101" t="s">
+        <v>138</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101" s="2">
+        <v>31627</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>137</v>
+      </c>
+      <c r="B102" t="s">
+        <v>139</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102" s="2">
+        <v>24265</v>
+      </c>
+      <c r="E102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>140</v>
+      </c>
+      <c r="B103" t="s">
+        <v>141</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103" s="2">
+        <v>18871</v>
+      </c>
+      <c r="E103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>142</v>
+      </c>
+      <c r="B104" t="s">
+        <v>143</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+      <c r="D104" s="2">
+        <v>26421</v>
+      </c>
+      <c r="E104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>142</v>
+      </c>
+      <c r="B105" t="s">
+        <v>144</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="D105" s="2">
+        <v>32118</v>
+      </c>
+      <c r="E105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>142</v>
+      </c>
+      <c r="B106" t="s">
+        <v>145</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="D106" s="2">
+        <v>40891</v>
+      </c>
+      <c r="E106">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>142</v>
+      </c>
+      <c r="B107" t="s">
+        <v>146</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="D107" s="2">
+        <v>41601</v>
+      </c>
+      <c r="E107">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>147</v>
+      </c>
+      <c r="B108" t="s">
+        <v>148</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+      <c r="D108" s="2">
+        <v>22376</v>
+      </c>
+      <c r="E108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>147</v>
+      </c>
+      <c r="B109" t="s">
+        <v>149</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>147</v>
+      </c>
+      <c r="B110" t="s">
+        <v>150</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="D110" s="2">
+        <v>34820</v>
+      </c>
+      <c r="E110">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>151</v>
+      </c>
+      <c r="B111" t="s">
+        <v>152</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+      <c r="D111" s="2">
+        <v>29900</v>
+      </c>
+      <c r="E111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>151</v>
+      </c>
+      <c r="B112" t="s">
+        <v>153</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+      <c r="D112" s="2">
+        <v>27817</v>
+      </c>
+      <c r="E112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>151</v>
+      </c>
+      <c r="B113" t="s">
+        <v>154</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+      <c r="D113" s="2">
+        <v>39076</v>
+      </c>
+      <c r="E113">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>151</v>
+      </c>
+      <c r="B114" t="s">
+        <v>155</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+      <c r="D114" s="2">
+        <v>39825</v>
+      </c>
+      <c r="E114">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>151</v>
+      </c>
+      <c r="B115" t="s">
+        <v>156</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+      <c r="D115" s="2">
+        <v>40715</v>
+      </c>
+      <c r="E115">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>157</v>
+      </c>
+      <c r="B116" t="s">
+        <v>158</v>
+      </c>
+      <c r="C116">
+        <v>1</v>
+      </c>
+      <c r="D116" s="2">
+        <v>28868</v>
+      </c>
+      <c r="E116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>157</v>
+      </c>
+      <c r="B117" t="s">
+        <v>159</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
+      <c r="D117" s="2">
+        <v>29136</v>
+      </c>
+      <c r="E117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>157</v>
+      </c>
+      <c r="B118" t="s">
+        <v>160</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+      <c r="D118" s="2">
+        <v>39570</v>
+      </c>
+      <c r="E118">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>157</v>
+      </c>
+      <c r="B119" t="s">
+        <v>161</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
+      <c r="D119" s="2">
+        <v>40602</v>
+      </c>
+      <c r="E119">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>157</v>
+      </c>
+      <c r="B120" t="s">
+        <v>162</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+      <c r="D120" s="2">
+        <v>42047</v>
+      </c>
+      <c r="E120">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>163</v>
+      </c>
+      <c r="B121" t="s">
+        <v>164</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+      <c r="D121" s="2">
+        <v>29668</v>
+      </c>
+      <c r="E121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>163</v>
+      </c>
+      <c r="B122" t="s">
+        <v>165</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="D122" s="2">
+        <v>25099</v>
+      </c>
+      <c r="E122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>163</v>
+      </c>
+      <c r="B123" t="s">
+        <v>166</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
+      <c r="D123" s="2">
+        <v>40748</v>
+      </c>
+      <c r="E123">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>163</v>
+      </c>
+      <c r="B124" t="s">
+        <v>167</v>
+      </c>
+      <c r="C124">
+        <v>1</v>
+      </c>
+      <c r="D124" s="2">
+        <v>41923</v>
+      </c>
+      <c r="E124">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>168</v>
+      </c>
+      <c r="B125" t="s">
+        <v>169</v>
+      </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
+      <c r="D125" s="2">
+        <v>29739</v>
+      </c>
+      <c r="E125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>168</v>
+      </c>
+      <c r="B126" t="s">
+        <v>170</v>
+      </c>
+      <c r="C126">
+        <v>0</v>
+      </c>
+      <c r="E126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>168</v>
+      </c>
+      <c r="B127" t="s">
+        <v>171</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+      <c r="E127">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>168</v>
+      </c>
+      <c r="B128" t="s">
+        <v>172</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+      <c r="E128">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>168</v>
+      </c>
+      <c r="B129" t="s">
+        <v>173</v>
+      </c>
+      <c r="C129">
+        <v>0</v>
+      </c>
+      <c r="E129">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>174</v>
+      </c>
+      <c r="B130" t="s">
+        <v>175</v>
+      </c>
+      <c r="C130">
+        <v>1</v>
+      </c>
+      <c r="D130" s="2">
+        <v>31818</v>
+      </c>
+      <c r="E130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>174</v>
+      </c>
+      <c r="B131" t="s">
+        <v>176</v>
+      </c>
+      <c r="C131">
+        <v>0</v>
+      </c>
+      <c r="D131" s="2">
+        <v>32849</v>
+      </c>
+      <c r="E131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>174</v>
+      </c>
+      <c r="B132" t="s">
+        <v>177</v>
+      </c>
+      <c r="C132">
+        <v>1</v>
+      </c>
+      <c r="D132" s="2">
+        <v>41699</v>
+      </c>
+      <c r="E132">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>178</v>
+      </c>
+      <c r="B133" t="s">
+        <v>179</v>
+      </c>
+      <c r="C133">
+        <v>1</v>
+      </c>
+      <c r="D133" s="2">
+        <v>25479</v>
+      </c>
+      <c r="E133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>178</v>
+      </c>
+      <c r="B134" t="s">
+        <v>180</v>
+      </c>
+      <c r="C134">
+        <v>0</v>
+      </c>
+      <c r="D134" s="2">
+        <v>26982</v>
+      </c>
+      <c r="E134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>178</v>
+      </c>
+      <c r="B135" t="s">
+        <v>181</v>
+      </c>
+      <c r="C135">
+        <v>1</v>
+      </c>
+      <c r="D135" s="2">
+        <v>38478</v>
+      </c>
+      <c r="E135">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>182</v>
+      </c>
+      <c r="B136" t="s">
+        <v>183</v>
+      </c>
+      <c r="C136">
+        <v>1</v>
+      </c>
+      <c r="D136" t="s">
+        <v>186</v>
+      </c>
+      <c r="E136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>182</v>
+      </c>
+      <c r="B137" t="s">
+        <v>184</v>
+      </c>
+      <c r="C137">
+        <v>0</v>
+      </c>
+      <c r="E137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>182</v>
+      </c>
+      <c r="B138" t="s">
+        <v>185</v>
+      </c>
+      <c r="C138">
+        <v>1</v>
+      </c>
+      <c r="E138">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>187</v>
+      </c>
+      <c r="B139" t="s">
+        <v>188</v>
+      </c>
+      <c r="C139">
+        <v>1</v>
+      </c>
+      <c r="E139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>187</v>
+      </c>
+      <c r="B140" t="s">
+        <v>189</v>
+      </c>
+      <c r="C140">
+        <v>0</v>
+      </c>
+      <c r="D140" s="2">
+        <v>27523</v>
+      </c>
+      <c r="E140">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>190</v>
+      </c>
+      <c r="B141" t="s">
+        <v>191</v>
+      </c>
+      <c r="C141">
+        <v>0</v>
+      </c>
+      <c r="D141" s="2">
+        <v>25659</v>
+      </c>
+      <c r="E141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>190</v>
+      </c>
+      <c r="B142" t="s">
+        <v>192</v>
+      </c>
+      <c r="C142">
+        <v>1</v>
+      </c>
+      <c r="D142" s="2">
+        <v>33565</v>
+      </c>
+      <c r="E142">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>193</v>
+      </c>
+      <c r="B143" t="s">
+        <v>194</v>
+      </c>
+      <c r="C143">
+        <v>1</v>
+      </c>
+      <c r="D143" s="2">
+        <v>23926</v>
+      </c>
+      <c r="E143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>193</v>
+      </c>
+      <c r="B144" t="s">
+        <v>195</v>
+      </c>
+      <c r="C144">
+        <v>0</v>
+      </c>
+      <c r="E144">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>196</v>
+      </c>
+      <c r="B145" t="s">
+        <v>197</v>
+      </c>
+      <c r="C145">
+        <v>0</v>
+      </c>
+      <c r="D145" s="2">
+        <v>24689</v>
+      </c>
+      <c r="E145">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>196</v>
+      </c>
+      <c r="B146" t="s">
+        <v>198</v>
+      </c>
+      <c r="C146">
+        <v>1</v>
+      </c>
+      <c r="D146" s="2">
+        <v>38203</v>
+      </c>
+      <c r="E146">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>199</v>
+      </c>
+      <c r="B147" t="s">
+        <v>200</v>
+      </c>
+      <c r="C147">
+        <v>1</v>
+      </c>
+      <c r="E147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>199</v>
+      </c>
+      <c r="B148" t="s">
+        <v>201</v>
+      </c>
+      <c r="C148">
+        <v>0</v>
+      </c>
+      <c r="E148">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>199</v>
+      </c>
+      <c r="B149" t="s">
+        <v>202</v>
+      </c>
+      <c r="C149">
+        <v>1</v>
+      </c>
+      <c r="E149">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>203</v>
+      </c>
+      <c r="B150" t="s">
+        <v>204</v>
+      </c>
+      <c r="C150">
+        <v>1</v>
+      </c>
+      <c r="E150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>203</v>
+      </c>
+      <c r="B151" t="s">
+        <v>205</v>
+      </c>
+      <c r="C151">
+        <v>0</v>
+      </c>
+      <c r="E151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>206</v>
+      </c>
+      <c r="B152" t="s">
+        <v>207</v>
+      </c>
+      <c r="C152">
+        <v>1</v>
+      </c>
+      <c r="E152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>206</v>
+      </c>
+      <c r="B153" t="s">
+        <v>208</v>
+      </c>
+      <c r="C153">
+        <v>0</v>
+      </c>
+      <c r="E153">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>210</v>
+      </c>
+      <c r="B154" t="s">
+        <v>209</v>
+      </c>
+      <c r="C154">
+        <v>0</v>
+      </c>
+      <c r="E154">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>210</v>
+      </c>
+      <c r="B155" t="s">
+        <v>211</v>
+      </c>
+      <c r="C155">
+        <v>1</v>
+      </c>
+      <c r="E155">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>210</v>
+      </c>
+      <c r="B156" t="s">
+        <v>212</v>
+      </c>
+      <c r="C156">
+        <v>0</v>
+      </c>
+      <c r="E156">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>213</v>
+      </c>
+      <c r="B157" t="s">
+        <v>214</v>
+      </c>
+      <c r="C157">
+        <v>1</v>
+      </c>
+      <c r="E157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>213</v>
+      </c>
+      <c r="B158" t="s">
+        <v>215</v>
+      </c>
+      <c r="C158">
+        <v>0</v>
+      </c>
+      <c r="E158">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>213</v>
+      </c>
+      <c r="B159" t="s">
+        <v>216</v>
+      </c>
+      <c r="C159">
+        <v>0</v>
+      </c>
+      <c r="E159">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>213</v>
+      </c>
+      <c r="B160" t="s">
+        <v>217</v>
+      </c>
+      <c r="C160">
+        <v>0</v>
+      </c>
+      <c r="E160">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>213</v>
+      </c>
+      <c r="B161" t="s">
+        <v>218</v>
+      </c>
+      <c r="C161">
+        <v>1</v>
+      </c>
+      <c r="E161">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/public/excel/Sektor 1.xlsx
+++ b/public/excel/Sektor 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROGRAMMER\LARAVEL\gkps-sidorame\public\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A981B475-A8D2-4BE7-B15D-DCC27285211D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B947348A-7A6C-4F26-B228-A9BD07C15332}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -447,9 +447,6 @@
     <t>Pasuria br Silaen</t>
   </si>
   <si>
-    <t>035_1</t>
-  </si>
-  <si>
     <t>St. Lortianna br Malau</t>
   </si>
   <si>
@@ -682,6 +679,9 @@
   </si>
   <si>
     <t>Mark Mikhael Purba</t>
+  </si>
+  <si>
+    <t>035_0</t>
   </si>
 </sst>
 </file>
@@ -1045,8 +1045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
-      <selection activeCell="A162" sqref="A162"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="A106" sqref="A106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2781,10 +2781,10 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
+        <v>218</v>
+      </c>
+      <c r="B103" t="s">
         <v>140</v>
-      </c>
-      <c r="B103" t="s">
-        <v>141</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -2798,10 +2798,10 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
+        <v>141</v>
+      </c>
+      <c r="B104" t="s">
         <v>142</v>
-      </c>
-      <c r="B104" t="s">
-        <v>143</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -2815,10 +2815,10 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B105" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C105">
         <v>0</v>
@@ -2832,10 +2832,10 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B106" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -2849,10 +2849,10 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B107" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -2866,10 +2866,10 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
+        <v>146</v>
+      </c>
+      <c r="B108" t="s">
         <v>147</v>
-      </c>
-      <c r="B108" t="s">
-        <v>148</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -2883,10 +2883,10 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B109" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -2897,10 +2897,10 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B110" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -2914,10 +2914,10 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
+        <v>150</v>
+      </c>
+      <c r="B111" t="s">
         <v>151</v>
-      </c>
-      <c r="B111" t="s">
-        <v>152</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -2931,10 +2931,10 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B112" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -2948,10 +2948,10 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B113" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -2965,10 +2965,10 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B114" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -2982,10 +2982,10 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B115" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -2999,10 +2999,10 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
+        <v>156</v>
+      </c>
+      <c r="B116" t="s">
         <v>157</v>
-      </c>
-      <c r="B116" t="s">
-        <v>158</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -3016,10 +3016,10 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B117" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -3033,10 +3033,10 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B118" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -3050,10 +3050,10 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B119" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -3067,10 +3067,10 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B120" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -3084,10 +3084,10 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
+        <v>162</v>
+      </c>
+      <c r="B121" t="s">
         <v>163</v>
-      </c>
-      <c r="B121" t="s">
-        <v>164</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -3101,10 +3101,10 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B122" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -3118,10 +3118,10 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B123" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -3135,10 +3135,10 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B124" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -3152,10 +3152,10 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
+        <v>167</v>
+      </c>
+      <c r="B125" t="s">
         <v>168</v>
-      </c>
-      <c r="B125" t="s">
-        <v>169</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -3169,10 +3169,10 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B126" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C126">
         <v>0</v>
@@ -3183,10 +3183,10 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B127" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -3197,10 +3197,10 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B128" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -3211,10 +3211,10 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B129" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -3225,10 +3225,10 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
+        <v>173</v>
+      </c>
+      <c r="B130" t="s">
         <v>174</v>
-      </c>
-      <c r="B130" t="s">
-        <v>175</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -3242,10 +3242,10 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B131" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -3259,10 +3259,10 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B132" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C132">
         <v>1</v>
@@ -3276,10 +3276,10 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
+        <v>177</v>
+      </c>
+      <c r="B133" t="s">
         <v>178</v>
-      </c>
-      <c r="B133" t="s">
-        <v>179</v>
       </c>
       <c r="C133">
         <v>1</v>
@@ -3293,10 +3293,10 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B134" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -3310,10 +3310,10 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B135" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C135">
         <v>1</v>
@@ -3327,16 +3327,16 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
+        <v>181</v>
+      </c>
+      <c r="B136" t="s">
         <v>182</v>
       </c>
-      <c r="B136" t="s">
-        <v>183</v>
-      </c>
       <c r="C136">
         <v>1</v>
       </c>
       <c r="D136" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E136">
         <v>1</v>
@@ -3344,10 +3344,10 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B137" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C137">
         <v>0</v>
@@ -3358,10 +3358,10 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B138" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C138">
         <v>1</v>
@@ -3372,10 +3372,10 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
+        <v>186</v>
+      </c>
+      <c r="B139" t="s">
         <v>187</v>
-      </c>
-      <c r="B139" t="s">
-        <v>188</v>
       </c>
       <c r="C139">
         <v>1</v>
@@ -3386,10 +3386,10 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B140" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C140">
         <v>0</v>
@@ -3403,10 +3403,10 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
+        <v>189</v>
+      </c>
+      <c r="B141" t="s">
         <v>190</v>
-      </c>
-      <c r="B141" t="s">
-        <v>191</v>
       </c>
       <c r="C141">
         <v>0</v>
@@ -3420,10 +3420,10 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B142" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -3437,10 +3437,10 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
+        <v>192</v>
+      </c>
+      <c r="B143" t="s">
         <v>193</v>
-      </c>
-      <c r="B143" t="s">
-        <v>194</v>
       </c>
       <c r="C143">
         <v>1</v>
@@ -3454,10 +3454,10 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B144" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C144">
         <v>0</v>
@@ -3468,10 +3468,10 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
+        <v>195</v>
+      </c>
+      <c r="B145" t="s">
         <v>196</v>
-      </c>
-      <c r="B145" t="s">
-        <v>197</v>
       </c>
       <c r="C145">
         <v>0</v>
@@ -3485,10 +3485,10 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B146" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C146">
         <v>1</v>
@@ -3502,10 +3502,10 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
+        <v>198</v>
+      </c>
+      <c r="B147" t="s">
         <v>199</v>
-      </c>
-      <c r="B147" t="s">
-        <v>200</v>
       </c>
       <c r="C147">
         <v>1</v>
@@ -3516,10 +3516,10 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B148" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C148">
         <v>0</v>
@@ -3530,10 +3530,10 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B149" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C149">
         <v>1</v>
@@ -3544,10 +3544,10 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
+        <v>202</v>
+      </c>
+      <c r="B150" t="s">
         <v>203</v>
-      </c>
-      <c r="B150" t="s">
-        <v>204</v>
       </c>
       <c r="C150">
         <v>1</v>
@@ -3558,10 +3558,10 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B151" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C151">
         <v>0</v>
@@ -3572,10 +3572,10 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
+        <v>205</v>
+      </c>
+      <c r="B152" t="s">
         <v>206</v>
-      </c>
-      <c r="B152" t="s">
-        <v>207</v>
       </c>
       <c r="C152">
         <v>1</v>
@@ -3586,10 +3586,10 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B153" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C153">
         <v>0</v>
@@ -3600,10 +3600,10 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B154" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C154">
         <v>0</v>
@@ -3614,10 +3614,10 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
+        <v>209</v>
+      </c>
+      <c r="B155" t="s">
         <v>210</v>
-      </c>
-      <c r="B155" t="s">
-        <v>211</v>
       </c>
       <c r="C155">
         <v>1</v>
@@ -3628,10 +3628,10 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B156" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C156">
         <v>0</v>
@@ -3642,10 +3642,10 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
+        <v>212</v>
+      </c>
+      <c r="B157" t="s">
         <v>213</v>
-      </c>
-      <c r="B157" t="s">
-        <v>214</v>
       </c>
       <c r="C157">
         <v>1</v>
@@ -3656,10 +3656,10 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B158" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C158">
         <v>0</v>
@@ -3670,10 +3670,10 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B159" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -3684,10 +3684,10 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B160" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C160">
         <v>0</v>
@@ -3698,10 +3698,10 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B161" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C161">
         <v>1</v>
